--- a/titanic.xlsx
+++ b/titanic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Digital Skill Fair\Exploratory Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Digital Skill Fair 38.0 - Faculty of Data\Data Science &amp; Data Analyst\Tugas\D3 (data cleaning task)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F110A4-01B7-4ADE-9E9F-E2108BF5821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36565368-1148-4BD2-9EA6-7E192A2D9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="24" windowWidth="11460" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="titanic3" sheetId="1" r:id="rId1"/>
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="B484" sqref="B484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
